--- a/biology/Histoire de la zoologie et de la botanique/Robert_Knud_Friedrich_Pilger/Robert_Knud_Friedrich_Pilger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Knud_Friedrich_Pilger/Robert_Knud_Friedrich_Pilger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Knud Friedrich Pilger, né le 3 juillet 1876 à Heligoland, mort le 9 janvier 1953 à Berlin[1] est un botaniste allemand qui s'est spécialisé dans l'étude des conifères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Knud Friedrich Pilger, né le 3 juillet 1876 à Heligoland, mort le 9 janvier 1953 à Berlin est un botaniste allemand qui s'est spécialisé dans l'étude des conifères.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il collecta des spécimens de plantes dans le Mato Grosso (Brésil) et fut, de 1945 à 1950, le directeur du jardin botanique de Berlin-Dahlem[1],[2].
-Les genres Pilgerodendron Florin (Cupressaceae)[3] et Pilgerochloa Eig (Poaceae) lui ont été dédiés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il collecta des spécimens de plantes dans le Mato Grosso (Brésil) et fut, de 1945 à 1950, le directeur du jardin botanique de Berlin-Dahlem,.
+Les genres Pilgerodendron Florin (Cupressaceae) et Pilgerochloa Eig (Poaceae) lui ont été dédiés.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pilger, R. (1926), Phylogenie und Systematik der Coniferae in Engler, A., &amp; Prantl, K. A. E. (éd.) Die natürlichen Pflanzenfamilien XIII. Leipzig.
 Pilger, R. (1926), Pinaceae in Urban, I. (éd.) Plantae Haitienses III. Ark. Bot. 20 (4): A15: 9-10.
